--- a/Code/Results/Cases/Case_3_92/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_92/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.004072721409032</v>
+        <v>1.028325096075421</v>
       </c>
       <c r="D2">
-        <v>1.020137685884958</v>
+        <v>1.032745402505437</v>
       </c>
       <c r="E2">
-        <v>1.009962416994012</v>
+        <v>1.028305576243729</v>
       </c>
       <c r="F2">
-        <v>0.9699937515804733</v>
+        <v>1.040452075360148</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043470399673094</v>
+        <v>1.036409555177593</v>
       </c>
       <c r="J2">
-        <v>1.026132296725823</v>
+        <v>1.033478041777262</v>
       </c>
       <c r="K2">
-        <v>1.031323422340425</v>
+        <v>1.035549747146059</v>
       </c>
       <c r="L2">
-        <v>1.021284682610542</v>
+        <v>1.031122778701696</v>
       </c>
       <c r="M2">
-        <v>0.9818875778685842</v>
+        <v>1.043234384260475</v>
       </c>
       <c r="N2">
-        <v>1.027589522286193</v>
+        <v>1.034945699138184</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.008224510001787</v>
+        <v>1.029167659468975</v>
       </c>
       <c r="D3">
-        <v>1.023255688882436</v>
+        <v>1.033385438919104</v>
       </c>
       <c r="E3">
-        <v>1.013253349183054</v>
+        <v>1.029018398859814</v>
       </c>
       <c r="F3">
-        <v>0.9816936668396988</v>
+        <v>1.042653199654112</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045270306347628</v>
+        <v>1.03668972602798</v>
       </c>
       <c r="J3">
-        <v>1.028493450236276</v>
+        <v>1.033961714541885</v>
       </c>
       <c r="K3">
-        <v>1.033599410621702</v>
+        <v>1.035999071181374</v>
       </c>
       <c r="L3">
-        <v>1.023719413558445</v>
+        <v>1.031643765603641</v>
       </c>
       <c r="M3">
-        <v>0.992566266124903</v>
+        <v>1.045242280792426</v>
       </c>
       <c r="N3">
-        <v>1.029954028905459</v>
+        <v>1.035430058773601</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.010849691256087</v>
+        <v>1.02971298304797</v>
       </c>
       <c r="D4">
-        <v>1.025226091836571</v>
+        <v>1.033799532065413</v>
       </c>
       <c r="E4">
-        <v>1.015339395777952</v>
+        <v>1.029480134258528</v>
       </c>
       <c r="F4">
-        <v>0.9889371297352504</v>
+        <v>1.044072019043702</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046388097449005</v>
+        <v>1.036869357086506</v>
       </c>
       <c r="J4">
-        <v>1.029979874584596</v>
+        <v>1.034274165066734</v>
       </c>
       <c r="K4">
-        <v>1.035029302654326</v>
+        <v>1.036289074287637</v>
       </c>
       <c r="L4">
-        <v>1.025256146887672</v>
+        <v>1.031980699621381</v>
       </c>
       <c r="M4">
-        <v>0.9991709334880595</v>
+        <v>1.046535740374956</v>
       </c>
       <c r="N4">
-        <v>1.031442564146849</v>
+        <v>1.035742953014034</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.011939316812072</v>
+        <v>1.029942267880508</v>
       </c>
       <c r="D5">
-        <v>1.026043710654374</v>
+        <v>1.033973604101237</v>
       </c>
       <c r="E5">
-        <v>1.016206467250249</v>
+        <v>1.029674365052266</v>
       </c>
       <c r="F5">
-        <v>0.9919105572107676</v>
+        <v>1.044667216360309</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046847374036628</v>
+        <v>1.036944478418706</v>
       </c>
       <c r="J5">
-        <v>1.030595319646776</v>
+        <v>1.034405395454395</v>
       </c>
       <c r="K5">
-        <v>1.035620669622376</v>
+        <v>1.036410814972321</v>
       </c>
       <c r="L5">
-        <v>1.025893354395782</v>
+        <v>1.032122303702204</v>
       </c>
       <c r="M5">
-        <v>1.001880526343272</v>
+        <v>1.047078155598337</v>
       </c>
       <c r="N5">
-        <v>1.03205888321161</v>
+        <v>1.035874369763897</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.012121467234262</v>
+        <v>1.02998076761802</v>
       </c>
       <c r="D6">
-        <v>1.026180377666009</v>
+        <v>1.034002830815852</v>
       </c>
       <c r="E6">
-        <v>1.016351485024069</v>
+        <v>1.029706984118683</v>
       </c>
       <c r="F6">
-        <v>0.9924057781510941</v>
+        <v>1.044767078791116</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046923880015925</v>
+        <v>1.036957068465367</v>
       </c>
       <c r="J6">
-        <v>1.030698114139003</v>
+        <v>1.034427422359454</v>
       </c>
       <c r="K6">
-        <v>1.03571940375657</v>
+        <v>1.036431245424067</v>
       </c>
       <c r="L6">
-        <v>1.025999837925367</v>
+        <v>1.032146077128391</v>
       </c>
       <c r="M6">
-        <v>1.002331710121545</v>
+        <v>1.047169150880603</v>
       </c>
       <c r="N6">
-        <v>1.032161823683806</v>
+        <v>1.035896427949688</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.010864305050281</v>
+        <v>1.029716046642168</v>
       </c>
       <c r="D7">
-        <v>1.025237058408879</v>
+        <v>1.033801858074512</v>
       </c>
       <c r="E7">
-        <v>1.015351019926817</v>
+        <v>1.029482729119853</v>
       </c>
       <c r="F7">
-        <v>0.9889771345894224</v>
+        <v>1.044079977068253</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046394275431082</v>
+        <v>1.036870362414023</v>
       </c>
       <c r="J7">
-        <v>1.029988134737165</v>
+        <v>1.034275919059871</v>
       </c>
       <c r="K7">
-        <v>1.035037242265209</v>
+        <v>1.036290701686134</v>
       </c>
       <c r="L7">
-        <v>1.025264695465265</v>
+        <v>1.031982591911025</v>
       </c>
       <c r="M7">
-        <v>0.9992073951179932</v>
+        <v>1.046542993442886</v>
       </c>
       <c r="N7">
-        <v>1.031450836029782</v>
+        <v>1.035744709498042</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.005488958405085</v>
+        <v>1.028609817663396</v>
       </c>
       <c r="D8">
-        <v>1.021201543444577</v>
+        <v>1.032961716844407</v>
       </c>
       <c r="E8">
-        <v>1.011083900832231</v>
+        <v>1.028546375961717</v>
       </c>
       <c r="F8">
-        <v>0.9740198093957874</v>
+        <v>1.041197104322817</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044088762118533</v>
+        <v>1.036504584434108</v>
       </c>
       <c r="J8">
-        <v>1.026939127013032</v>
+        <v>1.033641608667309</v>
       </c>
       <c r="K8">
-        <v>1.032101784990296</v>
+        <v>1.035701751716021</v>
       </c>
       <c r="L8">
-        <v>1.022115797928329</v>
+        <v>1.031298885778723</v>
       </c>
       <c r="M8">
-        <v>0.9855635912887771</v>
+        <v>1.043914177699312</v>
       </c>
       <c r="N8">
-        <v>1.028397498364954</v>
+        <v>1.035109498311966</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9955131705413592</v>
+        <v>1.026661485727244</v>
       </c>
       <c r="D9">
-        <v>1.013700903864556</v>
+        <v>1.031480870439162</v>
       </c>
       <c r="E9">
-        <v>1.003207267578471</v>
+        <v>1.026900184035261</v>
       </c>
       <c r="F9">
-        <v>0.9448012974367858</v>
+        <v>1.036073900951829</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039636714633051</v>
+        <v>1.035847271934023</v>
       </c>
       <c r="J9">
-        <v>1.02122537133073</v>
+        <v>1.032519893351259</v>
       </c>
       <c r="K9">
-        <v>1.02657553673731</v>
+        <v>1.034658261016774</v>
       </c>
       <c r="L9">
-        <v>1.016248522546335</v>
+        <v>1.030092735158811</v>
       </c>
       <c r="M9">
-        <v>0.9588582710757962</v>
+        <v>1.039236237673968</v>
       </c>
       <c r="N9">
-        <v>1.022675628494207</v>
+        <v>1.033986190031505</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9884682768516911</v>
+        <v>1.025363253949684</v>
       </c>
       <c r="D10">
-        <v>1.008391213564649</v>
+        <v>1.030493355455034</v>
       </c>
       <c r="E10">
-        <v>0.9976747873799143</v>
+        <v>1.025805285786077</v>
       </c>
       <c r="F10">
-        <v>0.9227726786335448</v>
+        <v>1.032627357489214</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036354728400042</v>
+        <v>1.035400387316523</v>
       </c>
       <c r="J10">
-        <v>1.017147012028537</v>
+        <v>1.031769388296655</v>
       </c>
       <c r="K10">
-        <v>1.022610597038754</v>
+        <v>1.033958744687122</v>
       </c>
       <c r="L10">
-        <v>1.012086151554108</v>
+        <v>1.029287708733598</v>
       </c>
       <c r="M10">
-        <v>0.9386918752138976</v>
+        <v>1.036085049554788</v>
       </c>
       <c r="N10">
-        <v>1.01859147745401</v>
+        <v>1.033234619173639</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.985308691487913</v>
+        <v>1.024801258150795</v>
       </c>
       <c r="D11">
-        <v>1.006005046429449</v>
+        <v>1.030065679987918</v>
       </c>
       <c r="E11">
-        <v>0.995200784584777</v>
+        <v>1.025331793822606</v>
       </c>
       <c r="F11">
-        <v>0.9124365176054131</v>
+        <v>1.031127141164438</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03484359519989</v>
+        <v>1.035204801659914</v>
       </c>
       <c r="J11">
-        <v>1.015305680326195</v>
+        <v>1.031443766774793</v>
       </c>
       <c r="K11">
-        <v>1.020814598002147</v>
+        <v>1.033654923376144</v>
       </c>
       <c r="L11">
-        <v>1.010213778173458</v>
+        <v>1.028938902043167</v>
       </c>
       <c r="M11">
-        <v>0.9292229660166054</v>
+        <v>1.034712403721044</v>
       </c>
       <c r="N11">
-        <v>1.016747530849448</v>
+        <v>1.032908535231867</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9841170420637597</v>
+        <v>1.024592529622534</v>
       </c>
       <c r="D12">
-        <v>1.005104149997434</v>
+        <v>1.029906810615171</v>
       </c>
       <c r="E12">
-        <v>0.9942687990753631</v>
+        <v>1.025156009051365</v>
       </c>
       <c r="F12">
-        <v>0.9084552024907561</v>
+        <v>1.030568676655248</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034267029787146</v>
+        <v>1.035131837722027</v>
       </c>
       <c r="J12">
-        <v>1.014609147251135</v>
+        <v>1.031322718542131</v>
       </c>
       <c r="K12">
-        <v>1.020134211541979</v>
+        <v>1.033541930641791</v>
       </c>
       <c r="L12">
-        <v>1.009506629756921</v>
+        <v>1.028809305663347</v>
       </c>
       <c r="M12">
-        <v>0.925574861576023</v>
+        <v>1.034201279124083</v>
       </c>
       <c r="N12">
-        <v>1.016050008617527</v>
+        <v>1.032787315096831</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9843735015030943</v>
+        <v>1.024637301623156</v>
       </c>
       <c r="D13">
-        <v>1.005298082422994</v>
+        <v>1.029940889169494</v>
       </c>
       <c r="E13">
-        <v>0.9944693259943949</v>
+        <v>1.025193711351246</v>
       </c>
       <c r="F13">
-        <v>0.9093160595610406</v>
+        <v>1.030688524917372</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034391428662734</v>
+        <v>1.035147503008086</v>
       </c>
       <c r="J13">
-        <v>1.01475914871499</v>
+        <v>1.031348688238577</v>
       </c>
       <c r="K13">
-        <v>1.020280783250946</v>
+        <v>1.033566174314638</v>
       </c>
       <c r="L13">
-        <v>1.009658864676766</v>
+        <v>1.028837106071652</v>
       </c>
       <c r="M13">
-        <v>0.9263637055318424</v>
+        <v>1.034310974827525</v>
       </c>
       <c r="N13">
-        <v>1.016200223100666</v>
+        <v>1.032813321673224</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9852105681371278</v>
+        <v>1.024784004144421</v>
       </c>
       <c r="D14">
-        <v>1.005930885123955</v>
+        <v>1.030052548036369</v>
       </c>
       <c r="E14">
-        <v>0.9951240204395909</v>
+        <v>1.025317261536836</v>
       </c>
       <c r="F14">
-        <v>0.9121104685228442</v>
+        <v>1.031081003378581</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034796259178773</v>
+        <v>1.035198776869732</v>
       </c>
       <c r="J14">
-        <v>1.01524836965736</v>
+        <v>1.031433762890655</v>
       </c>
       <c r="K14">
-        <v>1.020758636995439</v>
+        <v>1.033645586221803</v>
       </c>
       <c r="L14">
-        <v>1.010155570604172</v>
+        <v>1.028928190262033</v>
       </c>
       <c r="M14">
-        <v>0.9289242211515814</v>
+        <v>1.034670179978588</v>
       </c>
       <c r="N14">
-        <v>1.016690138792889</v>
+        <v>1.032898517141065</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9857238670268316</v>
+        <v>1.02487439527794</v>
       </c>
       <c r="D15">
-        <v>1.006318794774371</v>
+        <v>1.030121343191469</v>
       </c>
       <c r="E15">
-        <v>0.9955256304082968</v>
+        <v>1.025393396976166</v>
       </c>
       <c r="F15">
-        <v>0.9138126094586325</v>
+        <v>1.031322659806569</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035043606371429</v>
+        <v>1.03523032662542</v>
       </c>
       <c r="J15">
-        <v>1.015548085167878</v>
+        <v>1.031486167201329</v>
       </c>
       <c r="K15">
-        <v>1.021051252716273</v>
+        <v>1.033694495945581</v>
       </c>
       <c r="L15">
-        <v>1.010460023021565</v>
+        <v>1.028984305718677</v>
       </c>
       <c r="M15">
-        <v>0.9304837873198997</v>
+        <v>1.034891329680533</v>
       </c>
       <c r="N15">
-        <v>1.01699027993381</v>
+        <v>1.032950995871872</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9886755364180169</v>
+        <v>1.02540055482895</v>
       </c>
       <c r="D16">
-        <v>1.00854762221728</v>
+        <v>1.030521737254701</v>
       </c>
       <c r="E16">
-        <v>0.9978372261847633</v>
+        <v>1.02583672267392</v>
       </c>
       <c r="F16">
-        <v>0.9234400936733983</v>
+        <v>1.032726753367977</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036452982148291</v>
+        <v>1.035413323667008</v>
       </c>
       <c r="J16">
-        <v>1.017267526293933</v>
+        <v>1.031790985027106</v>
       </c>
       <c r="K16">
-        <v>1.022728013365546</v>
+        <v>1.033978888724356</v>
       </c>
       <c r="L16">
-        <v>1.012208847358669</v>
+        <v>1.029310853125042</v>
       </c>
       <c r="M16">
-        <v>0.9393031688834826</v>
+        <v>1.036175972478853</v>
       </c>
       <c r="N16">
-        <v>1.018712162863487</v>
+        <v>1.033256246573924</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9904967687755135</v>
+        <v>1.025730639953246</v>
       </c>
       <c r="D17">
-        <v>1.009921453663095</v>
+        <v>1.030772873532855</v>
       </c>
       <c r="E17">
-        <v>0.9992654357865121</v>
+        <v>1.026114971585824</v>
       </c>
       <c r="F17">
-        <v>0.9292517600660022</v>
+        <v>1.03360537745915</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037311849194564</v>
+        <v>1.035527554178866</v>
       </c>
       <c r="J17">
-        <v>1.018325105012911</v>
+        <v>1.031982015351281</v>
       </c>
       <c r="K17">
-        <v>1.023757731756873</v>
+        <v>1.034157032274959</v>
       </c>
       <c r="L17">
-        <v>1.013286356844351</v>
+        <v>1.029515627296296</v>
       </c>
       <c r="M17">
-        <v>0.9446254364169079</v>
+        <v>1.03697958437876</v>
       </c>
       <c r="N17">
-        <v>1.019771243465551</v>
+        <v>1.033447548183072</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9915486628409768</v>
+        <v>1.025923187245369</v>
       </c>
       <c r="D18">
-        <v>1.010714504743228</v>
+        <v>1.030919349872444</v>
       </c>
       <c r="E18">
-        <v>1.000091018399257</v>
+        <v>1.026277327951093</v>
       </c>
       <c r="F18">
-        <v>0.9325664151668136</v>
+        <v>1.034117110253443</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037804264136016</v>
+        <v>1.035593982188918</v>
       </c>
       <c r="J18">
-        <v>1.018934797998628</v>
+        <v>1.032093377636946</v>
       </c>
       <c r="K18">
-        <v>1.024350819785619</v>
+        <v>1.034260851095435</v>
       </c>
       <c r="L18">
-        <v>1.013908180932009</v>
+        <v>1.029635046922184</v>
       </c>
       <c r="M18">
-        <v>0.9476603549926889</v>
+        <v>1.037447532741739</v>
       </c>
       <c r="N18">
-        <v>1.020381802285241</v>
+        <v>1.033559068615956</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.991905612294215</v>
+        <v>1.02598884331892</v>
       </c>
       <c r="D19">
-        <v>1.010983549928316</v>
+        <v>1.030969293308365</v>
       </c>
       <c r="E19">
-        <v>1.000371287829791</v>
+        <v>1.026332697190154</v>
       </c>
       <c r="F19">
-        <v>0.9336844522128805</v>
+        <v>1.034291471243098</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037970761109949</v>
+        <v>1.035616598437677</v>
       </c>
       <c r="J19">
-        <v>1.019141504244404</v>
+        <v>1.032131338718712</v>
       </c>
       <c r="K19">
-        <v>1.024551807216855</v>
+        <v>1.034296235508035</v>
       </c>
       <c r="L19">
-        <v>1.014119106402609</v>
+        <v>1.029675762257398</v>
       </c>
       <c r="M19">
-        <v>0.948683929525418</v>
+        <v>1.037606959018144</v>
       </c>
       <c r="N19">
-        <v>1.020588802077595</v>
+        <v>1.033597083606812</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.990302454342911</v>
+        <v>1.025695223474863</v>
       </c>
       <c r="D20">
-        <v>1.009774920853185</v>
+        <v>1.030745929734862</v>
       </c>
       <c r="E20">
-        <v>0.9991129830431039</v>
+        <v>1.026085112060754</v>
       </c>
       <c r="F20">
-        <v>0.9286361418505169</v>
+        <v>1.033511187659292</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037220596215244</v>
+        <v>1.035515319101088</v>
       </c>
       <c r="J20">
-        <v>1.018212387120328</v>
+        <v>1.031961526071118</v>
       </c>
       <c r="K20">
-        <v>1.023648040458217</v>
+        <v>1.034137928400522</v>
       </c>
       <c r="L20">
-        <v>1.0131714475272</v>
+        <v>1.029493659210385</v>
       </c>
       <c r="M20">
-        <v>0.9440617220483856</v>
+        <v>1.036893445873585</v>
       </c>
       <c r="N20">
-        <v>1.019658365500632</v>
+        <v>1.033427029805781</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9849645858199626</v>
+        <v>1.024740803311533</v>
       </c>
       <c r="D21">
-        <v>1.005744956403493</v>
+        <v>1.030019667608437</v>
       </c>
       <c r="E21">
-        <v>0.9949316004194626</v>
+        <v>1.025280876567243</v>
       </c>
       <c r="F21">
-        <v>0.9112917144673565</v>
+        <v>1.030965462179608</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034677484277459</v>
+        <v>1.03518368669921</v>
       </c>
       <c r="J21">
-        <v>1.015104665155096</v>
+        <v>1.031408713233289</v>
       </c>
       <c r="K21">
-        <v>1.020618300149955</v>
+        <v>1.033622205265204</v>
       </c>
       <c r="L21">
-        <v>1.010009635634907</v>
+        <v>1.028901369180127</v>
       </c>
       <c r="M21">
-        <v>0.9281740188400791</v>
+        <v>1.034564438173019</v>
       </c>
       <c r="N21">
-        <v>1.016546230213749</v>
+        <v>1.032873431910314</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9815029908244927</v>
+        <v>1.024140847014316</v>
       </c>
       <c r="D22">
-        <v>1.00312584579817</v>
+        <v>1.029562970083469</v>
       </c>
       <c r="E22">
-        <v>0.9922263592633683</v>
+        <v>1.024775749650022</v>
       </c>
       <c r="F22">
-        <v>0.8995488474313281</v>
+        <v>1.029357800167402</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032988988008019</v>
+        <v>1.034973354382848</v>
       </c>
       <c r="J22">
-        <v>1.013077065093252</v>
+        <v>1.031060571131971</v>
       </c>
       <c r="K22">
-        <v>1.01863563236831</v>
+        <v>1.033297139388029</v>
       </c>
       <c r="L22">
-        <v>1.007953402611266</v>
+        <v>1.02852877581402</v>
       </c>
       <c r="M22">
-        <v>0.9174125437149957</v>
+        <v>1.033092773638531</v>
       </c>
       <c r="N22">
-        <v>1.014515750727248</v>
+        <v>1.032524795407279</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9833486934750127</v>
+        <v>1.02445888343088</v>
       </c>
       <c r="D23">
-        <v>1.004522971201183</v>
+        <v>1.029805080643435</v>
       </c>
       <c r="E23">
-        <v>0.9936681829877932</v>
+        <v>1.025043476909007</v>
       </c>
       <c r="F23">
-        <v>0.9058625692838651</v>
+        <v>1.030210735095156</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03389328928078</v>
+        <v>1.035085028884491</v>
       </c>
       <c r="J23">
-        <v>1.014159419692924</v>
+        <v>1.031245181762842</v>
       </c>
       <c r="K23">
-        <v>1.019694608867718</v>
+        <v>1.033469540051638</v>
       </c>
       <c r="L23">
-        <v>1.009050379689559</v>
+        <v>1.028726313382422</v>
       </c>
       <c r="M23">
-        <v>0.9231989993962667</v>
+        <v>1.03387363762092</v>
       </c>
       <c r="N23">
-        <v>1.015599642394599</v>
+        <v>1.032709668206421</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9903902886902686</v>
+        <v>1.025711226613459</v>
       </c>
       <c r="D24">
-        <v>1.009841158207112</v>
+        <v>1.030758104499988</v>
       </c>
       <c r="E24">
-        <v>0.9991818928631317</v>
+        <v>1.026098604114536</v>
       </c>
       <c r="F24">
-        <v>0.9289145439798689</v>
+        <v>1.033553750303107</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037261855797207</v>
+        <v>1.035520848226363</v>
       </c>
       <c r="J24">
-        <v>1.018263341565275</v>
+        <v>1.03197078448816</v>
       </c>
       <c r="K24">
-        <v>1.023697628402138</v>
+        <v>1.034146560895218</v>
       </c>
       <c r="L24">
-        <v>1.013223390627732</v>
+        <v>1.029503585710092</v>
       </c>
       <c r="M24">
-        <v>0.9443166535215267</v>
+        <v>1.036932370580068</v>
       </c>
       <c r="N24">
-        <v>1.019709392306736</v>
+        <v>1.033436301370837</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9981570855463312</v>
+        <v>1.027165060032425</v>
       </c>
       <c r="D25">
-        <v>1.015690557725728</v>
+        <v>1.031863754059688</v>
       </c>
       <c r="E25">
-        <v>1.005289764444055</v>
+        <v>1.027325313732162</v>
       </c>
       <c r="F25">
-        <v>0.9527505359661572</v>
+        <v>1.037403698819391</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040838596822542</v>
+        <v>1.036018725202053</v>
       </c>
       <c r="J25">
-        <v>1.022746630686618</v>
+        <v>1.032810357111142</v>
       </c>
       <c r="K25">
-        <v>1.028050084806372</v>
+        <v>1.034928705447357</v>
       </c>
       <c r="L25">
-        <v>1.0178065149005</v>
+        <v>1.030404716916377</v>
       </c>
       <c r="M25">
-        <v>0.9661294755766419</v>
+        <v>1.04045119664797</v>
       </c>
       <c r="N25">
-        <v>1.024199048212872</v>
+        <v>1.034277066283243</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_92/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_92/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028325096075421</v>
+        <v>1.004072721409032</v>
       </c>
       <c r="D2">
-        <v>1.032745402505437</v>
+        <v>1.020137685884958</v>
       </c>
       <c r="E2">
-        <v>1.028305576243729</v>
+        <v>1.009962416994012</v>
       </c>
       <c r="F2">
-        <v>1.040452075360148</v>
+        <v>0.9699937515804736</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036409555177593</v>
+        <v>1.043470399673095</v>
       </c>
       <c r="J2">
-        <v>1.033478041777262</v>
+        <v>1.026132296725823</v>
       </c>
       <c r="K2">
-        <v>1.035549747146059</v>
+        <v>1.031323422340425</v>
       </c>
       <c r="L2">
-        <v>1.031122778701696</v>
+        <v>1.021284682610542</v>
       </c>
       <c r="M2">
-        <v>1.043234384260475</v>
+        <v>0.9818875778685844</v>
       </c>
       <c r="N2">
-        <v>1.034945699138184</v>
+        <v>1.027589522286193</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029167659468975</v>
+        <v>1.008224510001788</v>
       </c>
       <c r="D3">
-        <v>1.033385438919104</v>
+        <v>1.023255688882436</v>
       </c>
       <c r="E3">
-        <v>1.029018398859814</v>
+        <v>1.013253349183054</v>
       </c>
       <c r="F3">
-        <v>1.042653199654112</v>
+        <v>0.9816936668397004</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03668972602798</v>
+        <v>1.045270306347629</v>
       </c>
       <c r="J3">
-        <v>1.033961714541885</v>
+        <v>1.028493450236277</v>
       </c>
       <c r="K3">
-        <v>1.035999071181374</v>
+        <v>1.033599410621703</v>
       </c>
       <c r="L3">
-        <v>1.031643765603641</v>
+        <v>1.023719413558445</v>
       </c>
       <c r="M3">
-        <v>1.045242280792426</v>
+        <v>0.9925662661249042</v>
       </c>
       <c r="N3">
-        <v>1.035430058773601</v>
+        <v>1.029954028905459</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.02971298304797</v>
+        <v>1.010849691256088</v>
       </c>
       <c r="D4">
-        <v>1.033799532065413</v>
+        <v>1.025226091836572</v>
       </c>
       <c r="E4">
-        <v>1.029480134258528</v>
+        <v>1.015339395777953</v>
       </c>
       <c r="F4">
-        <v>1.044072019043702</v>
+        <v>0.9889371297352511</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036869357086506</v>
+        <v>1.046388097449005</v>
       </c>
       <c r="J4">
-        <v>1.034274165066734</v>
+        <v>1.029979874584596</v>
       </c>
       <c r="K4">
-        <v>1.036289074287637</v>
+        <v>1.035029302654326</v>
       </c>
       <c r="L4">
-        <v>1.031980699621381</v>
+        <v>1.025256146887672</v>
       </c>
       <c r="M4">
-        <v>1.046535740374956</v>
+        <v>0.9991709334880603</v>
       </c>
       <c r="N4">
-        <v>1.035742953014034</v>
+        <v>1.03144256414685</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.029942267880508</v>
+        <v>1.011939316812072</v>
       </c>
       <c r="D5">
-        <v>1.033973604101237</v>
+        <v>1.026043710654373</v>
       </c>
       <c r="E5">
-        <v>1.029674365052266</v>
+        <v>1.016206467250248</v>
       </c>
       <c r="F5">
-        <v>1.044667216360309</v>
+        <v>0.9919105572107666</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036944478418706</v>
+        <v>1.046847374036628</v>
       </c>
       <c r="J5">
-        <v>1.034405395454395</v>
+        <v>1.030595319646776</v>
       </c>
       <c r="K5">
-        <v>1.036410814972321</v>
+        <v>1.035620669622376</v>
       </c>
       <c r="L5">
-        <v>1.032122303702204</v>
+        <v>1.025893354395782</v>
       </c>
       <c r="M5">
-        <v>1.047078155598337</v>
+        <v>1.001880526343271</v>
       </c>
       <c r="N5">
-        <v>1.035874369763897</v>
+        <v>1.03205888321161</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.02998076761802</v>
+        <v>1.012121467234263</v>
       </c>
       <c r="D6">
-        <v>1.034002830815852</v>
+        <v>1.02618037766601</v>
       </c>
       <c r="E6">
-        <v>1.029706984118683</v>
+        <v>1.01635148502407</v>
       </c>
       <c r="F6">
-        <v>1.044767078791116</v>
+        <v>0.9924057781510954</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036957068465367</v>
+        <v>1.046923880015926</v>
       </c>
       <c r="J6">
-        <v>1.034427422359454</v>
+        <v>1.030698114139003</v>
       </c>
       <c r="K6">
-        <v>1.036431245424067</v>
+        <v>1.035719403756571</v>
       </c>
       <c r="L6">
-        <v>1.032146077128391</v>
+        <v>1.025999837925368</v>
       </c>
       <c r="M6">
-        <v>1.047169150880603</v>
+        <v>1.002331710121546</v>
       </c>
       <c r="N6">
-        <v>1.035896427949688</v>
+        <v>1.032161823683807</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029716046642168</v>
+        <v>1.010864305050281</v>
       </c>
       <c r="D7">
-        <v>1.033801858074512</v>
+        <v>1.025237058408878</v>
       </c>
       <c r="E7">
-        <v>1.029482729119853</v>
+        <v>1.015351019926817</v>
       </c>
       <c r="F7">
-        <v>1.044079977068253</v>
+        <v>0.988977134589422</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036870362414023</v>
+        <v>1.046394275431081</v>
       </c>
       <c r="J7">
-        <v>1.034275919059871</v>
+        <v>1.029988134737164</v>
       </c>
       <c r="K7">
-        <v>1.036290701686134</v>
+        <v>1.035037242265209</v>
       </c>
       <c r="L7">
-        <v>1.031982591911025</v>
+        <v>1.025264695465265</v>
       </c>
       <c r="M7">
-        <v>1.046542993442886</v>
+        <v>0.9992073951179928</v>
       </c>
       <c r="N7">
-        <v>1.035744709498042</v>
+        <v>1.031450836029781</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.028609817663396</v>
+        <v>1.005488958405085</v>
       </c>
       <c r="D8">
-        <v>1.032961716844407</v>
+        <v>1.021201543444577</v>
       </c>
       <c r="E8">
-        <v>1.028546375961717</v>
+        <v>1.011083900832231</v>
       </c>
       <c r="F8">
-        <v>1.041197104322817</v>
+        <v>0.9740198093957882</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036504584434108</v>
+        <v>1.044088762118533</v>
       </c>
       <c r="J8">
-        <v>1.033641608667309</v>
+        <v>1.026939127013031</v>
       </c>
       <c r="K8">
-        <v>1.035701751716021</v>
+        <v>1.032101784990296</v>
       </c>
       <c r="L8">
-        <v>1.031298885778723</v>
+        <v>1.022115797928329</v>
       </c>
       <c r="M8">
-        <v>1.043914177699312</v>
+        <v>0.985563591288778</v>
       </c>
       <c r="N8">
-        <v>1.035109498311966</v>
+        <v>1.028397498364954</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.026661485727244</v>
+        <v>0.9955131705413587</v>
       </c>
       <c r="D9">
-        <v>1.031480870439162</v>
+        <v>1.013700903864555</v>
       </c>
       <c r="E9">
-        <v>1.026900184035261</v>
+        <v>1.00320726757847</v>
       </c>
       <c r="F9">
-        <v>1.036073900951829</v>
+        <v>0.9448012974367849</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035847271934023</v>
+        <v>1.039636714633051</v>
       </c>
       <c r="J9">
-        <v>1.032519893351259</v>
+        <v>1.02122537133073</v>
       </c>
       <c r="K9">
-        <v>1.034658261016774</v>
+        <v>1.026575536737309</v>
       </c>
       <c r="L9">
-        <v>1.030092735158811</v>
+        <v>1.016248522546335</v>
       </c>
       <c r="M9">
-        <v>1.039236237673968</v>
+        <v>0.9588582710757949</v>
       </c>
       <c r="N9">
-        <v>1.033986190031505</v>
+        <v>1.022675628494207</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.025363253949684</v>
+        <v>0.9884682768516915</v>
       </c>
       <c r="D10">
-        <v>1.030493355455034</v>
+        <v>1.008391213564649</v>
       </c>
       <c r="E10">
-        <v>1.025805285786077</v>
+        <v>0.9976747873799147</v>
       </c>
       <c r="F10">
-        <v>1.032627357489214</v>
+        <v>0.922772678633544</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035400387316523</v>
+        <v>1.036354728400042</v>
       </c>
       <c r="J10">
-        <v>1.031769388296655</v>
+        <v>1.017147012028537</v>
       </c>
       <c r="K10">
-        <v>1.033958744687122</v>
+        <v>1.022610597038754</v>
       </c>
       <c r="L10">
-        <v>1.029287708733598</v>
+        <v>1.012086151554108</v>
       </c>
       <c r="M10">
-        <v>1.036085049554788</v>
+        <v>0.938691875213897</v>
       </c>
       <c r="N10">
-        <v>1.033234619173639</v>
+        <v>1.01859147745401</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.024801258150795</v>
+        <v>0.9853086914879136</v>
       </c>
       <c r="D11">
-        <v>1.030065679987918</v>
+        <v>1.006005046429449</v>
       </c>
       <c r="E11">
-        <v>1.025331793822606</v>
+        <v>0.9952007845847778</v>
       </c>
       <c r="F11">
-        <v>1.031127141164438</v>
+        <v>0.9124365176054141</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035204801659914</v>
+        <v>1.03484359519989</v>
       </c>
       <c r="J11">
-        <v>1.031443766774793</v>
+        <v>1.015305680326196</v>
       </c>
       <c r="K11">
-        <v>1.033654923376144</v>
+        <v>1.020814598002148</v>
       </c>
       <c r="L11">
-        <v>1.028938902043167</v>
+        <v>1.010213778173459</v>
       </c>
       <c r="M11">
-        <v>1.034712403721044</v>
+        <v>0.9292229660166064</v>
       </c>
       <c r="N11">
-        <v>1.032908535231867</v>
+        <v>1.016747530849449</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.024592529622534</v>
+        <v>0.9841170420637594</v>
       </c>
       <c r="D12">
-        <v>1.029906810615171</v>
+        <v>1.005104149997434</v>
       </c>
       <c r="E12">
-        <v>1.025156009051365</v>
+        <v>0.9942687990753629</v>
       </c>
       <c r="F12">
-        <v>1.030568676655248</v>
+        <v>0.9084552024907543</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035131837722027</v>
+        <v>1.034267029787146</v>
       </c>
       <c r="J12">
-        <v>1.031322718542131</v>
+        <v>1.014609147251135</v>
       </c>
       <c r="K12">
-        <v>1.033541930641791</v>
+        <v>1.020134211541979</v>
       </c>
       <c r="L12">
-        <v>1.028809305663347</v>
+        <v>1.009506629756921</v>
       </c>
       <c r="M12">
-        <v>1.034201279124083</v>
+        <v>0.9255748615760214</v>
       </c>
       <c r="N12">
-        <v>1.032787315096831</v>
+        <v>1.016050008617527</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.024637301623156</v>
+        <v>0.9843735015030932</v>
       </c>
       <c r="D13">
-        <v>1.029940889169494</v>
+        <v>1.005298082422992</v>
       </c>
       <c r="E13">
-        <v>1.025193711351246</v>
+        <v>0.9944693259943941</v>
       </c>
       <c r="F13">
-        <v>1.030688524917372</v>
+        <v>0.9093160595610388</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035147503008086</v>
+        <v>1.034391428662733</v>
       </c>
       <c r="J13">
-        <v>1.031348688238577</v>
+        <v>1.014759148714989</v>
       </c>
       <c r="K13">
-        <v>1.033566174314638</v>
+        <v>1.020280783250945</v>
       </c>
       <c r="L13">
-        <v>1.028837106071652</v>
+        <v>1.009658864676765</v>
       </c>
       <c r="M13">
-        <v>1.034310974827525</v>
+        <v>0.9263637055318408</v>
       </c>
       <c r="N13">
-        <v>1.032813321673224</v>
+        <v>1.016200223100665</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.024784004144421</v>
+        <v>0.9852105681371276</v>
       </c>
       <c r="D14">
-        <v>1.030052548036369</v>
+        <v>1.005930885123955</v>
       </c>
       <c r="E14">
-        <v>1.025317261536836</v>
+        <v>0.9951240204395909</v>
       </c>
       <c r="F14">
-        <v>1.031081003378581</v>
+        <v>0.9121104685228444</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035198776869732</v>
+        <v>1.034796259178773</v>
       </c>
       <c r="J14">
-        <v>1.031433762890655</v>
+        <v>1.01524836965736</v>
       </c>
       <c r="K14">
-        <v>1.033645586221803</v>
+        <v>1.020758636995439</v>
       </c>
       <c r="L14">
-        <v>1.028928190262033</v>
+        <v>1.010155570604172</v>
       </c>
       <c r="M14">
-        <v>1.034670179978588</v>
+        <v>0.9289242211515814</v>
       </c>
       <c r="N14">
-        <v>1.032898517141065</v>
+        <v>1.016690138792889</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.02487439527794</v>
+        <v>0.9857238670268318</v>
       </c>
       <c r="D15">
-        <v>1.030121343191469</v>
+        <v>1.006318794774371</v>
       </c>
       <c r="E15">
-        <v>1.025393396976166</v>
+        <v>0.9955256304082968</v>
       </c>
       <c r="F15">
-        <v>1.031322659806569</v>
+        <v>0.913812609458634</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03523032662542</v>
+        <v>1.03504360637143</v>
       </c>
       <c r="J15">
-        <v>1.031486167201329</v>
+        <v>1.015548085167878</v>
       </c>
       <c r="K15">
-        <v>1.033694495945581</v>
+        <v>1.021051252716274</v>
       </c>
       <c r="L15">
-        <v>1.028984305718677</v>
+        <v>1.010460023021565</v>
       </c>
       <c r="M15">
-        <v>1.034891329680533</v>
+        <v>0.930483787319901</v>
       </c>
       <c r="N15">
-        <v>1.032950995871872</v>
+        <v>1.01699027993381</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.02540055482895</v>
+        <v>0.9886755364180168</v>
       </c>
       <c r="D16">
-        <v>1.030521737254701</v>
+        <v>1.008547622217279</v>
       </c>
       <c r="E16">
-        <v>1.02583672267392</v>
+        <v>0.997837226184763</v>
       </c>
       <c r="F16">
-        <v>1.032726753367977</v>
+        <v>0.9234400936733972</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035413323667008</v>
+        <v>1.036452982148291</v>
       </c>
       <c r="J16">
-        <v>1.031790985027106</v>
+        <v>1.017267526293933</v>
       </c>
       <c r="K16">
-        <v>1.033978888724356</v>
+        <v>1.022728013365546</v>
       </c>
       <c r="L16">
-        <v>1.029310853125042</v>
+        <v>1.012208847358669</v>
       </c>
       <c r="M16">
-        <v>1.036175972478853</v>
+        <v>0.9393031688834816</v>
       </c>
       <c r="N16">
-        <v>1.033256246573924</v>
+        <v>1.018712162863487</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.025730639953246</v>
+        <v>0.9904967687755133</v>
       </c>
       <c r="D17">
-        <v>1.030772873532855</v>
+        <v>1.009921453663095</v>
       </c>
       <c r="E17">
-        <v>1.026114971585824</v>
+        <v>0.9992654357865122</v>
       </c>
       <c r="F17">
-        <v>1.03360537745915</v>
+        <v>0.9292517600660027</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035527554178866</v>
+        <v>1.037311849194564</v>
       </c>
       <c r="J17">
-        <v>1.031982015351281</v>
+        <v>1.018325105012911</v>
       </c>
       <c r="K17">
-        <v>1.034157032274959</v>
+        <v>1.023757731756873</v>
       </c>
       <c r="L17">
-        <v>1.029515627296296</v>
+        <v>1.01328635684435</v>
       </c>
       <c r="M17">
-        <v>1.03697958437876</v>
+        <v>0.9446254364169085</v>
       </c>
       <c r="N17">
-        <v>1.033447548183072</v>
+        <v>1.019771243465551</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.025923187245369</v>
+        <v>0.9915486628409771</v>
       </c>
       <c r="D18">
-        <v>1.030919349872444</v>
+        <v>1.010714504743228</v>
       </c>
       <c r="E18">
-        <v>1.026277327951093</v>
+        <v>1.000091018399257</v>
       </c>
       <c r="F18">
-        <v>1.034117110253443</v>
+        <v>0.9325664151668135</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035593982188918</v>
+        <v>1.037804264136016</v>
       </c>
       <c r="J18">
-        <v>1.032093377636946</v>
+        <v>1.018934797998628</v>
       </c>
       <c r="K18">
-        <v>1.034260851095435</v>
+        <v>1.024350819785619</v>
       </c>
       <c r="L18">
-        <v>1.029635046922184</v>
+        <v>1.01390818093201</v>
       </c>
       <c r="M18">
-        <v>1.037447532741739</v>
+        <v>0.9476603549926885</v>
       </c>
       <c r="N18">
-        <v>1.033559068615956</v>
+        <v>1.020381802285241</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.02598884331892</v>
+        <v>0.9919056122942149</v>
       </c>
       <c r="D19">
-        <v>1.030969293308365</v>
+        <v>1.010983549928316</v>
       </c>
       <c r="E19">
-        <v>1.026332697190154</v>
+        <v>1.000371287829791</v>
       </c>
       <c r="F19">
-        <v>1.034291471243098</v>
+        <v>0.9336844522128799</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035616598437677</v>
+        <v>1.037970761109949</v>
       </c>
       <c r="J19">
-        <v>1.032131338718712</v>
+        <v>1.019141504244404</v>
       </c>
       <c r="K19">
-        <v>1.034296235508035</v>
+        <v>1.024551807216855</v>
       </c>
       <c r="L19">
-        <v>1.029675762257398</v>
+        <v>1.014119106402608</v>
       </c>
       <c r="M19">
-        <v>1.037606959018144</v>
+        <v>0.9486839295254174</v>
       </c>
       <c r="N19">
-        <v>1.033597083606812</v>
+        <v>1.020588802077595</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.025695223474863</v>
+        <v>0.9903024543429105</v>
       </c>
       <c r="D20">
-        <v>1.030745929734862</v>
+        <v>1.009774920853184</v>
       </c>
       <c r="E20">
-        <v>1.026085112060754</v>
+        <v>0.9991129830431035</v>
       </c>
       <c r="F20">
-        <v>1.033511187659292</v>
+        <v>0.928636141850516</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035515319101088</v>
+        <v>1.037220596215243</v>
       </c>
       <c r="J20">
-        <v>1.031961526071118</v>
+        <v>1.018212387120328</v>
       </c>
       <c r="K20">
-        <v>1.034137928400522</v>
+        <v>1.023648040458216</v>
       </c>
       <c r="L20">
-        <v>1.029493659210385</v>
+        <v>1.0131714475272</v>
       </c>
       <c r="M20">
-        <v>1.036893445873585</v>
+        <v>0.9440617220483847</v>
       </c>
       <c r="N20">
-        <v>1.033427029805781</v>
+        <v>1.019658365500632</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.024740803311533</v>
+        <v>0.9849645858199623</v>
       </c>
       <c r="D21">
-        <v>1.030019667608437</v>
+        <v>1.005744956403493</v>
       </c>
       <c r="E21">
-        <v>1.025280876567243</v>
+        <v>0.9949316004194625</v>
       </c>
       <c r="F21">
-        <v>1.030965462179608</v>
+        <v>0.9112917144673562</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03518368669921</v>
+        <v>1.034677484277459</v>
       </c>
       <c r="J21">
-        <v>1.031408713233289</v>
+        <v>1.015104665155096</v>
       </c>
       <c r="K21">
-        <v>1.033622205265204</v>
+        <v>1.020618300149955</v>
       </c>
       <c r="L21">
-        <v>1.028901369180127</v>
+        <v>1.010009635634906</v>
       </c>
       <c r="M21">
-        <v>1.034564438173019</v>
+        <v>0.9281740188400791</v>
       </c>
       <c r="N21">
-        <v>1.032873431910314</v>
+        <v>1.016546230213749</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.024140847014316</v>
+        <v>0.9815029908244933</v>
       </c>
       <c r="D22">
-        <v>1.029562970083469</v>
+        <v>1.003125845798171</v>
       </c>
       <c r="E22">
-        <v>1.024775749650022</v>
+        <v>0.9922263592633689</v>
       </c>
       <c r="F22">
-        <v>1.029357800167402</v>
+        <v>0.8995488474313292</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034973354382848</v>
+        <v>1.032988988008019</v>
       </c>
       <c r="J22">
-        <v>1.031060571131971</v>
+        <v>1.013077065093253</v>
       </c>
       <c r="K22">
-        <v>1.033297139388029</v>
+        <v>1.01863563236831</v>
       </c>
       <c r="L22">
-        <v>1.02852877581402</v>
+        <v>1.007953402611266</v>
       </c>
       <c r="M22">
-        <v>1.033092773638531</v>
+        <v>0.9174125437149966</v>
       </c>
       <c r="N22">
-        <v>1.032524795407279</v>
+        <v>1.014515750727249</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.02445888343088</v>
+        <v>0.9833486934750125</v>
       </c>
       <c r="D23">
-        <v>1.029805080643435</v>
+        <v>1.004522971201183</v>
       </c>
       <c r="E23">
-        <v>1.025043476909007</v>
+        <v>0.9936681829877929</v>
       </c>
       <c r="F23">
-        <v>1.030210735095156</v>
+        <v>0.9058625692838645</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035085028884491</v>
+        <v>1.03389328928078</v>
       </c>
       <c r="J23">
-        <v>1.031245181762842</v>
+        <v>1.014159419692923</v>
       </c>
       <c r="K23">
-        <v>1.033469540051638</v>
+        <v>1.019694608867718</v>
       </c>
       <c r="L23">
-        <v>1.028726313382422</v>
+        <v>1.009050379689559</v>
       </c>
       <c r="M23">
-        <v>1.03387363762092</v>
+        <v>0.9231989993962662</v>
       </c>
       <c r="N23">
-        <v>1.032709668206421</v>
+        <v>1.015599642394599</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.025711226613459</v>
+        <v>0.9903902886902679</v>
       </c>
       <c r="D24">
-        <v>1.030758104499988</v>
+        <v>1.009841158207111</v>
       </c>
       <c r="E24">
-        <v>1.026098604114536</v>
+        <v>0.999181892863131</v>
       </c>
       <c r="F24">
-        <v>1.033553750303107</v>
+        <v>0.9289145439798695</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035520848226363</v>
+        <v>1.037261855797207</v>
       </c>
       <c r="J24">
-        <v>1.03197078448816</v>
+        <v>1.018263341565274</v>
       </c>
       <c r="K24">
-        <v>1.034146560895218</v>
+        <v>1.023697628402137</v>
       </c>
       <c r="L24">
-        <v>1.029503585710092</v>
+        <v>1.013223390627732</v>
       </c>
       <c r="M24">
-        <v>1.036932370580068</v>
+        <v>0.9443166535215273</v>
       </c>
       <c r="N24">
-        <v>1.033436301370837</v>
+        <v>1.019709392306735</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.027165060032425</v>
+        <v>0.9981570855463313</v>
       </c>
       <c r="D25">
-        <v>1.031863754059688</v>
+        <v>1.015690557725728</v>
       </c>
       <c r="E25">
-        <v>1.027325313732162</v>
+        <v>1.005289764444054</v>
       </c>
       <c r="F25">
-        <v>1.037403698819391</v>
+        <v>0.9527505359661562</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036018725202053</v>
+        <v>1.040838596822542</v>
       </c>
       <c r="J25">
-        <v>1.032810357111142</v>
+        <v>1.022746630686618</v>
       </c>
       <c r="K25">
-        <v>1.034928705447357</v>
+        <v>1.028050084806372</v>
       </c>
       <c r="L25">
-        <v>1.030404716916377</v>
+        <v>1.017806514900499</v>
       </c>
       <c r="M25">
-        <v>1.04045119664797</v>
+        <v>0.966129475576641</v>
       </c>
       <c r="N25">
-        <v>1.034277066283243</v>
+        <v>1.024199048212871</v>
       </c>
     </row>
   </sheetData>
